--- a/코로나 확진율.xlsx
+++ b/코로나 확진율.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chjo7\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25150" windowHeight="14640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25152" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,116 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>2월1일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월2일</t>
-  </si>
-  <si>
-    <t>2월3일</t>
-  </si>
-  <si>
-    <t>2월4일</t>
-  </si>
-  <si>
-    <t>2월5일</t>
-  </si>
-  <si>
-    <t>2월6일</t>
-  </si>
-  <si>
-    <t>2월7일</t>
-  </si>
-  <si>
-    <t>2월8일</t>
-  </si>
-  <si>
-    <t>2월9일</t>
-  </si>
-  <si>
-    <t>2월10일</t>
-  </si>
-  <si>
-    <t>2월11일</t>
-  </si>
-  <si>
-    <t>2월12일</t>
-  </si>
-  <si>
-    <t>2월13일</t>
-  </si>
-  <si>
-    <t>2월14일</t>
-  </si>
-  <si>
-    <t>2월15일</t>
-  </si>
-  <si>
-    <t>2월16일</t>
-  </si>
-  <si>
-    <t>2월17일</t>
-  </si>
-  <si>
-    <t>2월18일</t>
-  </si>
-  <si>
-    <t>2월19일</t>
-  </si>
-  <si>
-    <t>2월20일</t>
-  </si>
-  <si>
-    <t>2월21일</t>
-  </si>
-  <si>
-    <t>2월22일</t>
-  </si>
-  <si>
-    <t>2월23일</t>
-  </si>
-  <si>
-    <t>2월24일</t>
-  </si>
-  <si>
-    <t>2월25일</t>
-  </si>
-  <si>
-    <t>2월26일</t>
-  </si>
-  <si>
-    <t>2월27일</t>
-  </si>
-  <si>
-    <t>2월28일</t>
-  </si>
-  <si>
-    <t>2월29일</t>
-  </si>
-  <si>
-    <t>2월30일</t>
-  </si>
-  <si>
-    <t>2월31일</t>
-  </si>
-  <si>
-    <t>2월32일</t>
-  </si>
-  <si>
-    <t>2월33일</t>
-  </si>
-  <si>
-    <t>2월34일</t>
-  </si>
-  <si>
-    <t>2월35일</t>
-  </si>
-  <si>
-    <t>2월36일</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>신규 발생 확진자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,7 +154,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$14</c:f>
+              <c:f>Sheet1!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -298,7 +189,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$D$50</c:f>
+              <c:f>Sheet1!$C$10:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -341,11 +232,8 @@
                 <c:pt idx="24">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>600</c:v>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,15 +984,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1390,288 +1278,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B14:D50"/>
+  <dimension ref="A9:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>20220201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>20220202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>20220203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>20220204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>20220205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>20220206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>20220207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>20220208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>20220209</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>20220210</v>
+      </c>
+      <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+      <c r="C19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>20220211</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+      <c r="C20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20220212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20220213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20220214</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>20220215</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>20220216</v>
+      </c>
+      <c r="B25">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
+      <c r="C25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>20220217</v>
+      </c>
+      <c r="B26">
         <v>8</v>
       </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
+      <c r="C26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>20220218</v>
+      </c>
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
+      <c r="C27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>20220219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>20220220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>20220221</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>20220222</v>
+      </c>
+      <c r="B31">
         <v>10</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
+      <c r="C31">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>20220223</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>20220224</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>20220225</v>
+      </c>
+      <c r="B34">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
-      <c r="D37">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>24</v>
+      <c r="C34">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>20220226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>20220227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>20220228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>20220301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>20220302</v>
       </c>
       <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50">
-        <v>600</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>20220303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>20220304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>20220305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>20220306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>20220307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>20220308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>20220309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>20220310</v>
       </c>
     </row>
   </sheetData>

--- a/코로나 확진율.xlsx
+++ b/코로나 확진율.xlsx
@@ -30,7 +30,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누족 확진자</t>
+    <t>누적 확진자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,6 +113,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>누적 확진자</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -154,11 +179,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$9</c:f>
+              <c:f>Sheet1!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>누족 확진자</c:v>
+                  <c:v>누적 확진자</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -189,7 +214,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$C$45</c:f>
+              <c:f>Sheet1!$C$6:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -233,7 +258,13 @@
                   <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>200</c:v>
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,16 +1015,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>633730</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1278,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:C47"/>
+  <dimension ref="A5:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1291,282 +1322,288 @@
     <col min="3" max="3" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>20220201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>20220202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>20220203</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
+      <c r="A9">
+        <v>20220204</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>20220201</v>
+        <v>20220205</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>20220202</v>
+        <v>20220206</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>20220203</v>
+        <v>20220207</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>20220204</v>
+        <v>20220208</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>20220205</v>
+        <v>20220209</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>20220206</v>
+        <v>20220210</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>20220207</v>
+        <v>20220211</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>20220208</v>
+        <v>20220212</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>20220209</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>55</v>
+        <v>20220213</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>20220210</v>
+        <v>20220214</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>20220211</v>
+        <v>20220215</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>20220212</v>
+        <v>20220216</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>20220213</v>
+        <v>20220217</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>20220214</v>
+        <v>20220218</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>20220215</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>78</v>
+        <v>20220219</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>20220216</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>82</v>
+        <v>20220220</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>20220217</v>
+        <v>20220221</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>20220218</v>
+        <v>20220222</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>20220219</v>
+        <v>20220223</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>20220220</v>
+        <v>20220224</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>20220221</v>
+        <v>20220225</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>20220222</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>136</v>
+        <v>20220226</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>20220223</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <v>150</v>
+        <v>20220227</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>20220224</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>164</v>
+        <v>20220228</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>20220225</v>
-      </c>
-      <c r="B34">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>176</v>
+        <v>20220301</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>20220226</v>
+        <v>20220302</v>
+      </c>
+      <c r="C35">
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>20220227</v>
+        <v>20220303</v>
+      </c>
+      <c r="C36">
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>20220228</v>
+        <v>20220304</v>
+      </c>
+      <c r="C37">
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>20220301</v>
+        <v>20220305</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>20220302</v>
-      </c>
-      <c r="C39">
-        <v>200</v>
+        <v>20220306</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>20220303</v>
+        <v>20220307</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>20220304</v>
+        <v>20220308</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>20220305</v>
+        <v>20220309</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>20220306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>20220307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>20220308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>20220309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47">
         <v>20220310</v>
       </c>
     </row>

--- a/코로나 확진율.xlsx
+++ b/코로나 확진율.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -265,6 +265,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,7 +1315,7 @@
   <dimension ref="A5:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1591,6 +1594,9 @@
       <c r="A40">
         <v>20220307</v>
       </c>
+      <c r="C40">
+        <v>298</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">

--- a/코로나 확진율.xlsx
+++ b/코로나 확진율.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,10 +214,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$41</c:f>
+              <c:f>Sheet1!$C$6:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="8">
                   <c:v>55</c:v>
                 </c:pt>
@@ -268,6 +268,18 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:C43"/>
+  <dimension ref="A5:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1613,6 +1625,48 @@
         <v>20220310</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>20220311</v>
+      </c>
+      <c r="C44">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>20220312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>20220313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>20220314</v>
+      </c>
+      <c r="C47">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>20220315</v>
+      </c>
+      <c r="C48">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>20220316</v>
+      </c>
+      <c r="C49">
+        <v>570</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
